--- a/biology/Histoire de la zoologie et de la botanique/Ambrosius_Hubrecht/Ambrosius_Hubrecht.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ambrosius_Hubrecht/Ambrosius_Hubrecht.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ambrosius Arnold Willem Hubrecht est un zoologiste néerlandais, né le 2 mars 1853 à Rotterdam et mort le 21 mars 1915 à Utrecht.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fréquente les universités d’Utrecht, de Leyde, d’Erlangen et de Heidelberg. Il est l’assistant du zoologiste Emil Selenka (1842-1902) à l’université d’Erlangen en 1874. De 1875 à 1882, il travaille au Rijksmuseum van Natuurlijke Historie (Leyde) et, en 1882, devient professeur à Utrecht. Il transforme son appartement de fonction, à Janskerkhof, en laboratoire d’embryologie. Après sa mort, il deviendra l’Institut Hubrecht[1] consacrée aux recherches embryologiques (ce n’est que dans les années 1960 que l’Institut sera installé dans un immeuble récent dans le quartier d’Uithof).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fréquente les universités d’Utrecht, de Leyde, d’Erlangen et de Heidelberg. Il est l’assistant du zoologiste Emil Selenka (1842-1902) à l’université d’Erlangen en 1874. De 1875 à 1882, il travaille au Rijksmuseum van Natuurlijke Historie (Leyde) et, en 1882, devient professeur à Utrecht. Il transforme son appartement de fonction, à Janskerkhof, en laboratoire d’embryologie. Après sa mort, il deviendra l’Institut Hubrecht consacrée aux recherches embryologiques (ce n’est que dans les années 1960 que l’Institut sera installé dans un immeuble récent dans le quartier d’Uithof).
 En 1890-1891, il voyage à Java, Sumatra et Bornéo où il fait des observations en embryologie, notamment du tarsier. Il visite les États-Unis d'Amérique en 1896 et 1907. Hubrecht correspond, à partir de 1882, avec Charles Darwin (1809-1882). Cette correspondance est conservée à l’Institut Hubrecht.
 Il rassemble une grande collection d’embryons de mammifère, provenant pour l’essentiel des colonies néerlandaises d’Asie. Elle a été enrichie d’envois faits de correspondants étrangers. Elle est aujourd’hui au musée d'histoire naturelle de Berlin.
 Hubrecht reçoit plusieurs doctorats honoris causa par les universités de Princeton, de St Andrews, de Dublin, de Glasgow et de Giessen. En 1883, il devient membre de l’Académie royale des arts et des sciences néerlandaise.
@@ -546,7 +560,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(nl) Biographie tirée de Biografisch Woordenboek van Nederland</t>
         </is>
